--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B83040-B67A-4AC6-A9AE-97FE632862C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A89501-FED8-49DA-8DD5-06835AD3C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EE53B-024A-410B-BEE3-9F03FBFC3817}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
@@ -920,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>81</v>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A89501-FED8-49DA-8DD5-06835AD3C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D04BF-0B18-4718-99D6-93E58AA24CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -309,17 +309,15 @@
     <t>f1-micro</t>
   </si>
   <si>
+    <t>[{
+	network_name = "default"
+	access_config  = []
+}]</t>
+  </si>
+  <si>
     <t>{
-	network = "default"
-	access_config {
-	}</t>
-  </si>
-  <si>
-    <t>{
-	initialize_params {
-		image = "debian-10-buster-v20220719"
-	}   	
-   }</t>
+image = "debian-10-buster-v20220719"
+}</t>
   </si>
 </sst>
 </file>
@@ -351,7 +349,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,14 +358,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -398,27 +408,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,175 +750,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EE53B-024A-410B-BEE3-9F03FBFC3817}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="31.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
     <col min="8" max="8" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -913,25 +926,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="232" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -939,215 +952,215 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="3" t="b">
+      <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="b">
+      <c r="F10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3" t="b">
+      <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="7" t="b">
+      <c r="F15" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="3" t="b">
+      <c r="E16" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="b">
+      <c r="F16" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1155,32 +1168,32 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -1190,13 +1203,13 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="5" t="s">

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D04BF-0B18-4718-99D6-93E58AA24CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1332B8-970B-4A9F-B2FC-4B954271FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>us-central1</t>
   </si>
   <si>
-    <t>sample-mod-instance</t>
-  </si>
-  <si>
     <t>us-central1-a</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
     <t>{
 image = "debian-10-buster-v20220719"
 }</t>
+  </si>
+  <si>
+    <t>sample2-mod-instance</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -910,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1332B8-970B-4A9F-B2FC-4B954271FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5C0A89-970B-4D25-A8A1-8813F7280B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -317,7 +317,7 @@
 }</t>
   </si>
   <si>
-    <t>sample2-mod-instance</t>
+    <t>sample3-mod-instance</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5C0A89-970B-4D25-A8A1-8813F7280B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC235C3-0616-4D8B-8F88-5E154ED848E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>val17</t>
   </si>
   <si>
-    <t>val18</t>
-  </si>
-  <si>
     <t>isMandatory</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>sample3-mod-instance</t>
+  </si>
+  <si>
+    <t>val19</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EE53B-024A-410B-BEE3-9F03FBFC3817}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +773,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>63</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -910,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>54</v>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC235C3-0616-4D8B-8F88-5E154ED848E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B5F42-67C5-4FF8-84CB-FE387121061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -314,10 +314,10 @@
 }</t>
   </si>
   <si>
-    <t>sample3-mod-instance</t>
-  </si>
-  <si>
     <t>val19</t>
+  </si>
+  <si>
+    <t>sample-mod-instance5</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EE53B-024A-410B-BEE3-9F03FBFC3817}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>54</v>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B5F42-67C5-4FF8-84CB-FE387121061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723DB887-8565-4B66-8AF7-5F99666AFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>val19</t>
   </si>
   <si>
-    <t>sample-mod-instance5</t>
+    <t>naveen-swamy-mod-instance</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723DB887-8565-4B66-8AF7-5F99666AFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A778C4-1A7E-48CB-9961-992C2B165739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>val19</t>
   </si>
   <si>
-    <t>naveen-swamy-mod-instance</t>
+    <t>sample-mod-instance-01</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A778C4-1A7E-48CB-9961-992C2B165739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A59D50-78C4-448E-A929-3348C288EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>val19</t>
   </si>
   <si>
-    <t>sample-mod-instance-01</t>
+    <t>sample-mod-instance-02</t>
   </si>
 </sst>
 </file>
@@ -370,13 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A59D50-78C4-448E-A929-3348C288EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954405C-9AA3-4688-BE7F-6E9481E288DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>val19</t>
   </si>
   <si>
-    <t>sample-mod-instance-02</t>
+    <t>abcd-mod-instance-01</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954405C-9AA3-4688-BE7F-6E9481E288DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD2CF3-340A-437E-A6B5-59CBA3D0DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
   <sheets>
     <sheet name="compute_instance" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -258,42 +259,9 @@
     <t>Values</t>
   </si>
   <si>
-    <t>val8</t>
-  </si>
-  <si>
-    <t>val9</t>
-  </si>
-  <si>
-    <t>val10</t>
-  </si>
-  <si>
-    <t>val11</t>
-  </si>
-  <si>
-    <t>val12</t>
-  </si>
-  <si>
-    <t>val13</t>
-  </si>
-  <si>
-    <t>val14</t>
-  </si>
-  <si>
-    <t>val15</t>
-  </si>
-  <si>
-    <t>val16</t>
-  </si>
-  <si>
-    <t>val17</t>
-  </si>
-  <si>
     <t>isMandatory</t>
   </si>
   <si>
-    <t>mytemporaryproject28490</t>
-  </si>
-  <si>
     <t>us-central1</t>
   </si>
   <si>
@@ -301,12 +269,6 @@
   </si>
   <si>
     <t>f1-micro</t>
-  </si>
-  <si>
-    <t>[{
-	network_name = "default"
-	access_config  = []
-}]</t>
   </si>
   <si>
     <t>{
@@ -314,10 +276,10 @@
 }</t>
   </si>
   <si>
-    <t>val19</t>
-  </si>
-  <si>
     <t>abcd-mod-instance-01</t>
+  </si>
+  <si>
+    <t>mytemporaryproject28490</t>
   </si>
 </sst>
 </file>
@@ -773,7 +735,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>63</v>
@@ -802,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -824,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -846,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -866,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -888,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -910,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -935,9 +897,7 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
@@ -961,9 +921,7 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -985,9 +943,7 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
@@ -1009,9 +965,7 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1031,9 +985,7 @@
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1055,9 +1007,7 @@
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1081,9 +1031,7 @@
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
@@ -1103,9 +1051,7 @@
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
@@ -1127,9 +1073,7 @@
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="4" t="b">
         <v>0</v>
       </c>
@@ -1151,9 +1095,7 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1177,9 +1119,7 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1203,9 +1143,7 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1221,4 +1159,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E921E-BFA8-44E0-B498-C0F469F0DCEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Software\test\excel_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD2CF3-340A-437E-A6B5-59CBA3D0DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C562C8-D14F-4B59-8E3D-AACCA0DB9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
   <sheets>
     <sheet name="compute_instance" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1159,16 +1158,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E921E-BFA8-44E0-B498-C0F469F0DCEF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Infra_variable_sheet.xlsx
+++ b/Infra_variable_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C562C8-D14F-4B59-8E3D-AACCA0DB9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2471764-792E-4C0F-A768-00A7205D7DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0D632C60-C971-4783-B8EC-C0562DE30E92}"/>
   </bookViews>
   <sheets>
     <sheet name="compute_instance" sheetId="2" r:id="rId1"/>
+    <sheet name="cloud_run" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -279,6 +280,9 @@
   </si>
   <si>
     <t>mytemporaryproject28490</t>
+  </si>
+  <si>
+    <t>cloud-run-01</t>
   </si>
 </sst>
 </file>
@@ -711,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EE53B-024A-410B-BEE3-9F03FBFC3817}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1158,4 +1162,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C146151-91B2-4500-A7AA-E03872A026DD}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="232" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>